--- a/Schematics/Laba_1_files/Book1.xlsx
+++ b/Schematics/Laba_1_files/Book1.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4th_semestr\fourth_semestr\Schematics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4th_semestr\fourth_semestr\Schematics\Laba_1_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B46C3B-1DF4-43C8-8475-9087AFB7D1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082ED96B-9EC1-404F-8BB1-03D4C781A1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{DA204F5A-8798-413B-8F26-AFC921F08140}"/>
+    <workbookView xWindow="10860" yWindow="3660" windowWidth="17310" windowHeight="15345" activeTab="2" xr2:uid="{DA204F5A-8798-413B-8F26-AFC921F08140}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="21">
   <si>
     <t>Состояние/входы</t>
   </si>
@@ -739,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2618AB-0420-46A7-9461-4303E55720AE}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,4 +897,165 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F79041-1078-4398-B7ED-AFE4F7110887}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>